--- a/va_facility_data_2025-02-20/Bismarck VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bismarck%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bismarck VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bismarck%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R13420c26855f45799bcb6d9bd3f856a0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfcee641269764a049904d2c7191121af"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0b41df39246740548b75bcca80697c30"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8d553ef8079c460aaa7444c31476e5ab"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3c2e495dbc12449681b0c8d742b004f7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf4930a3606c2417d9774985db019ee18"/>
   </x:sheets>
 </x:workbook>
 </file>
